--- a/data.xlsx
+++ b/data.xlsx
@@ -309,7 +309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="232">
+  <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -480,6 +480,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -571,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="232">
+  <cellStyles count="236">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -687,6 +691,8 @@
     <cellStyle name="ハイパーリンク" xfId="226" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="228" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2 2" xfId="167"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -804,6 +810,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="227" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="229" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="235" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1135,7 +1143,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1261,7 +1269,7 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="I3" s="6">
-        <v>2947</v>
+        <v>3138</v>
       </c>
       <c r="J3" s="7">
         <v>2.5179999999999998</v>
@@ -1306,7 +1314,7 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="I4" s="6">
-        <v>3258</v>
+        <v>3079</v>
       </c>
       <c r="J4" s="7">
         <v>2.3050000000000002</v>
@@ -1351,7 +1359,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="I5" s="6">
-        <v>2651</v>
+        <v>2596</v>
       </c>
       <c r="J5" s="7">
         <v>1.978</v>
@@ -1396,7 +1404,7 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="I6" s="6">
-        <v>1894</v>
+        <v>1957</v>
       </c>
       <c r="J6" s="7">
         <v>1.5389999999999999</v>
@@ -1441,7 +1449,7 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="I7" s="6">
-        <v>2350</v>
+        <v>2954</v>
       </c>
       <c r="J7" s="7">
         <v>2.94</v>
@@ -1486,7 +1494,7 @@
         <v>0.53400000000000003</v>
       </c>
       <c r="I8" s="6">
-        <v>2427</v>
+        <v>2986</v>
       </c>
       <c r="J8" s="7">
         <v>2.82</v>
@@ -1531,7 +1539,7 @@
         <v>0.498</v>
       </c>
       <c r="I9" s="6">
-        <v>2986</v>
+        <v>3730</v>
       </c>
       <c r="J9" s="7">
         <v>3.6419999999999999</v>
@@ -1576,7 +1584,7 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="I10" s="6">
-        <v>3054</v>
+        <v>3725</v>
       </c>
       <c r="J10" s="7">
         <v>3.4609999999999999</v>
@@ -1621,7 +1629,7 @@
         <v>1.19</v>
       </c>
       <c r="I11" s="6">
-        <v>6021</v>
+        <v>7170</v>
       </c>
       <c r="J11" s="7">
         <v>6.415</v>
@@ -1666,7 +1674,7 @@
         <v>1.18</v>
       </c>
       <c r="I12" s="6">
-        <v>5354</v>
+        <v>6439</v>
       </c>
       <c r="J12" s="7">
         <v>5.843</v>
@@ -1711,7 +1719,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="I13" s="6">
-        <v>4533</v>
+        <v>5362</v>
       </c>
       <c r="J13" s="7">
         <v>4.7560000000000002</v>
@@ -1756,7 +1764,7 @@
         <v>1.01</v>
       </c>
       <c r="I14" s="6">
-        <v>4325</v>
+        <v>5268</v>
       </c>
       <c r="J14" s="7">
         <v>4.8819999999999997</v>
@@ -1801,7 +1809,7 @@
         <v>1.33</v>
       </c>
       <c r="I15" s="6">
-        <v>5629</v>
+        <v>6864</v>
       </c>
       <c r="J15" s="7">
         <v>6.3739999999999997</v>
@@ -1846,7 +1854,7 @@
         <v>1.58</v>
       </c>
       <c r="I16" s="6">
-        <v>6958</v>
+        <v>8770</v>
       </c>
       <c r="J16" s="7">
         <v>8.8119999999999994</v>
@@ -1891,7 +1899,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I17" s="6">
-        <v>4530</v>
+        <v>5644</v>
       </c>
       <c r="J17" s="7">
         <v>5.484</v>
@@ -1936,7 +1944,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="I18" s="6">
-        <v>5504</v>
+        <v>6910</v>
       </c>
       <c r="J18" s="7">
         <v>6.8559999999999999</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -309,7 +309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="236">
+  <cellStyleXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -548,8 +548,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,8 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="236">
+  <cellStyles count="240">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -693,6 +698,8 @@
     <cellStyle name="ハイパーリンク" xfId="230" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="238" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2 2" xfId="167"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -812,6 +819,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="231" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="239" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1140,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1962,6 +1971,34 @@
         <v>19.73</v>
       </c>
       <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
